--- a/src/analysis_examples/circadb/results_lomb/cosinor_10363486_lrrc20_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10363486_lrrc20_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2116039213007469, 0.35360330823696373]</t>
+          <t>[0.21092490169431444, 0.3542823278433962]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.745815029849609e-08</v>
+        <v>5.539592562442408e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>4.745815029849609e-08</v>
+        <v>5.539592562442408e-08</v>
       </c>
       <c r="O2" t="n">
         <v>0.5346053564667317</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3440246800346277, 0.42009564906531427]</t>
+          <t>[0.34399413608171975, 0.42012619301822224]</t>
         </is>
       </c>
       <c r="U2" t="n">
